--- a/MATRIZ1.xlsx
+++ b/MATRIZ1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miguel.chacon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB93B9F-20C4-4A57-8EB0-F812DF033E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8608EB16-741F-4054-BA38-ABD803A53627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -683,9 +683,6 @@
     <t>Ministerio de Planificación del Desarrollo; Ministerio de Hidrocarburos y Energías</t>
   </si>
   <si>
-    <t>Ministerio de Planificación del Desarrollo; INRA</t>
-  </si>
-  <si>
     <t>Capacitación, promoción e Infraestructura Turística del destino turístico Marca País (Uyuni – Lagunas)</t>
   </si>
   <si>
@@ -717,6 +714,9 @@
   </si>
   <si>
     <t>Ministerio de Economía</t>
+  </si>
+  <si>
+    <t>Ministerio de Planificación del Desarrollo; Ministerio de la Presidencia</t>
   </si>
 </sst>
 </file>
@@ -1598,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,7 +1912,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>40</v>
@@ -2254,7 +2254,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>63</v>
@@ -3013,7 +3013,7 @@
         <v>115</v>
       </c>
       <c r="C23" s="81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>78</v>
@@ -3082,7 +3082,7 @@
         <v>118</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D24" s="52" t="s">
         <v>112</v>
@@ -3319,7 +3319,7 @@
         <v>135</v>
       </c>
       <c r="C28" s="81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D28" s="62" t="s">
         <v>88</v>
@@ -3487,7 +3487,7 @@
         <v>149</v>
       </c>
       <c r="C31" s="81" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D31" s="62" t="s">
         <v>78</v>
@@ -3652,7 +3652,7 @@
         <v>139</v>
       </c>
       <c r="B34" s="86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="84" t="s">
         <v>150</v>
@@ -3721,10 +3721,10 @@
         <v>139</v>
       </c>
       <c r="B35" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="85" t="s">
         <v>169</v>
-      </c>
-      <c r="C35" s="85" t="s">
-        <v>170</v>
       </c>
       <c r="D35" s="72" t="s">
         <v>154</v>
@@ -3790,13 +3790,13 @@
         <v>139</v>
       </c>
       <c r="B36" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="84" t="s">
         <v>171</v>
       </c>
-      <c r="C36" s="84" t="s">
-        <v>172</v>
-      </c>
       <c r="D36" s="67" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="E36" s="67" t="s">
         <v>158</v>
